--- a/indicadores/tablas/330106.xlsx
+++ b/indicadores/tablas/330106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -48,12 +48,6 @@
     <t xml:space="preserve">Seguridad Social</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accesibilidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
@@ -76,6 +70,18 @@
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de personas que residen en hogares pobres que no perciben transferencias (tus o afam) / Cantidadde personas en hogares pobres)*100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
   </si>
 </sst>
 </file>
@@ -525,6 +531,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/indicadores/tablas/330106.xlsx
+++ b/indicadores/tablas/330106.xlsx
@@ -411,7 +411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -473,7 +473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/330106.xlsx
+++ b/indicadores/tablas/330106.xlsx
@@ -411,7 +411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -473,7 +473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
